--- a/modelos/OBABOL4471038/OBABOL4471038_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471038/OBABOL4471038_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,881 +473,841 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44733</v>
+        <v>44743</v>
       </c>
       <c r="B2" t="n">
-        <v>161.9914030519453</v>
+        <v>150.7906883748915</v>
       </c>
       <c r="C2" t="n">
-        <v>86.51533750079169</v>
+        <v>76.01758017035544</v>
       </c>
       <c r="D2" t="n">
-        <v>230.0012669020001</v>
+        <v>216.4770168147469</v>
       </c>
       <c r="E2" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44726</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44740</v>
+        <v>44747</v>
       </c>
       <c r="B3" t="n">
-        <v>175.1081757420184</v>
+        <v>149.2422082363699</v>
       </c>
       <c r="C3" t="n">
-        <v>101.9983036131547</v>
+        <v>79.02351914863692</v>
       </c>
       <c r="D3" t="n">
-        <v>238.1134121199403</v>
+        <v>220.4008329226008</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44733</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44743</v>
+        <v>44754</v>
       </c>
       <c r="B4" t="n">
-        <v>145.0417469458781</v>
+        <v>120.7280894245373</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87003123741199</v>
+        <v>46.64621267469892</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2351942943731</v>
+        <v>193.7714201263165</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44740</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="B5" t="n">
-        <v>146.5960629951058</v>
+        <v>135.9904614973145</v>
       </c>
       <c r="C5" t="n">
-        <v>73.33123989178392</v>
+        <v>61.7649143107403</v>
       </c>
       <c r="D5" t="n">
-        <v>217.2094508004985</v>
+        <v>210.5466449747214</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44740</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44754</v>
+        <v>44768</v>
       </c>
       <c r="B6" t="n">
-        <v>121.0383579155166</v>
+        <v>170.8076418509573</v>
       </c>
       <c r="C6" t="n">
-        <v>43.60523223177601</v>
+        <v>94.58401826326676</v>
       </c>
       <c r="D6" t="n">
-        <v>194.5131385197318</v>
+        <v>246.051186017069</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44747</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44761</v>
+        <v>44782</v>
       </c>
       <c r="B7" t="n">
-        <v>134.5328058998718</v>
+        <v>206.0494283768994</v>
       </c>
       <c r="C7" t="n">
-        <v>61.56189033234949</v>
+        <v>130.6209769143185</v>
       </c>
       <c r="D7" t="n">
-        <v>214.2110067629439</v>
+        <v>277.3560217152682</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44754</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44768</v>
+        <v>44824</v>
       </c>
       <c r="B8" t="n">
-        <v>170.3137474324002</v>
+        <v>173.8937257948854</v>
       </c>
       <c r="C8" t="n">
-        <v>97.19258942892952</v>
+        <v>100.386444076302</v>
       </c>
       <c r="D8" t="n">
-        <v>246.5999226226951</v>
+        <v>245.4505982202813</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44761</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44782</v>
+        <v>44831</v>
       </c>
       <c r="B9" t="n">
-        <v>209.5025624986332</v>
+        <v>167.3153514245392</v>
       </c>
       <c r="C9" t="n">
-        <v>139.2715917431435</v>
+        <v>96.98287466362373</v>
       </c>
       <c r="D9" t="n">
-        <v>283.7281345924392</v>
+        <v>242.3904282943145</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44775</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44824</v>
+        <v>44848</v>
       </c>
       <c r="B10" t="n">
-        <v>175.0755359730574</v>
+        <v>165.1308444500685</v>
       </c>
       <c r="C10" t="n">
-        <v>95.67545789757365</v>
+        <v>91.85058878224282</v>
       </c>
       <c r="D10" t="n">
-        <v>249.1336584242119</v>
+        <v>244.891478577974</v>
       </c>
       <c r="E10" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44817</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44831</v>
+        <v>44852</v>
       </c>
       <c r="B11" t="n">
-        <v>167.0179244177718</v>
+        <v>172.4376522495596</v>
       </c>
       <c r="C11" t="n">
-        <v>95.42783433592504</v>
+        <v>90.96133131296338</v>
       </c>
       <c r="D11" t="n">
-        <v>250.9888582124398</v>
+        <v>251.1557990328433</v>
       </c>
       <c r="E11" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44824</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44848</v>
+        <v>44859</v>
       </c>
       <c r="B12" t="n">
-        <v>162.3817031986815</v>
+        <v>150.958659328439</v>
       </c>
       <c r="C12" t="n">
-        <v>87.97297907906322</v>
+        <v>79.24855243774955</v>
       </c>
       <c r="D12" t="n">
-        <v>238.8665481490193</v>
+        <v>229.8339029285639</v>
       </c>
       <c r="E12" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44845</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B13" t="n">
-        <v>171.9084150490319</v>
+        <v>109.3896244811571</v>
       </c>
       <c r="C13" t="n">
-        <v>95.9249881140632</v>
+        <v>31.66801250728266</v>
       </c>
       <c r="D13" t="n">
-        <v>250.9486527778497</v>
+        <v>183.7495743586639</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B14" t="n">
-        <v>148.3575929051351</v>
+        <v>113.1108809551762</v>
       </c>
       <c r="C14" t="n">
-        <v>72.35965474659618</v>
+        <v>38.63442663276611</v>
       </c>
       <c r="D14" t="n">
-        <v>222.4649208475913</v>
+        <v>188.7728113203859</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44852</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44865</v>
+        <v>44876</v>
       </c>
       <c r="B15" t="n">
-        <v>111.7313775524258</v>
+        <v>97.87566037569826</v>
       </c>
       <c r="C15" t="n">
-        <v>37.93284878723924</v>
+        <v>22.28460839302654</v>
       </c>
       <c r="D15" t="n">
-        <v>185.1868652796265</v>
+        <v>171.2889110451463</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44859</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B16" t="n">
-        <v>111.7480308066383</v>
+        <v>116.7581511330874</v>
       </c>
       <c r="C16" t="n">
-        <v>29.73827764597333</v>
+        <v>41.76651654284387</v>
       </c>
       <c r="D16" t="n">
-        <v>184.3635867172459</v>
+        <v>194.425786309144</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44866</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="B17" t="n">
-        <v>102.0344454186248</v>
+        <v>101.1423084139399</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5722062554195</v>
+        <v>22.37825508389873</v>
       </c>
       <c r="D17" t="n">
-        <v>181.1154096061049</v>
+        <v>174.4149223190443</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44873</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="B18" t="n">
-        <v>122.1966619015487</v>
+        <v>93.90260327505874</v>
       </c>
       <c r="C18" t="n">
-        <v>44.78266240262105</v>
+        <v>26.96003118136517</v>
       </c>
       <c r="D18" t="n">
-        <v>196.9243183320238</v>
+        <v>175.710560351574</v>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="B19" t="n">
-        <v>105.7169864618924</v>
+        <v>70.89030347192116</v>
       </c>
       <c r="C19" t="n">
-        <v>24.71662918376359</v>
+        <v>-3.840005426205389</v>
       </c>
       <c r="D19" t="n">
-        <v>183.6585260539746</v>
+        <v>147.7250605580831</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B20" t="n">
+        <v>87.18933441047224</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.6780516810974</v>
+      </c>
+      <c r="D20" t="n">
+        <v>161.185191634312</v>
+      </c>
+      <c r="E20" t="n">
+        <v>110</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B20" t="n">
-        <v>98.72832042288616</v>
-      </c>
-      <c r="C20" t="n">
-        <v>24.69533377892688</v>
-      </c>
-      <c r="D20" t="n">
-        <v>176.1793340204134</v>
-      </c>
-      <c r="E20" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44897</v>
+        <v>44908</v>
       </c>
       <c r="B21" t="n">
-        <v>62.86267513982285</v>
+        <v>96.69740507713723</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.1978809406695</v>
+        <v>22.47669404757664</v>
       </c>
       <c r="D21" t="n">
-        <v>139.4535504271212</v>
+        <v>171.6612375564356</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44894</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="B22" t="n">
-        <v>81.93170139906039</v>
+        <v>102.2036393986941</v>
       </c>
       <c r="C22" t="n">
-        <v>3.857910561648764</v>
+        <v>18.03651999518289</v>
       </c>
       <c r="D22" t="n">
-        <v>148.513890786201</v>
+        <v>179.9659255298583</v>
       </c>
       <c r="E22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44908</v>
+        <v>44929</v>
       </c>
       <c r="B23" t="n">
-        <v>93.9104359000424</v>
+        <v>86.47196780581328</v>
       </c>
       <c r="C23" t="n">
-        <v>18.95952076821726</v>
+        <v>12.97872841988614</v>
       </c>
       <c r="D23" t="n">
-        <v>171.0180187718405</v>
+        <v>159.1266432234743</v>
       </c>
       <c r="E23" t="n">
         <v>70</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44901</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44915</v>
+        <v>44936</v>
       </c>
       <c r="B24" t="n">
-        <v>98.16251806952002</v>
+        <v>73.72516474735431</v>
       </c>
       <c r="C24" t="n">
-        <v>28.00061597428386</v>
+        <v>1.018743760532776</v>
       </c>
       <c r="D24" t="n">
-        <v>176.6224870346651</v>
+        <v>148.5899275328303</v>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44908</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B25" t="n">
-        <v>81.63539583351928</v>
+        <v>82.17265487278553</v>
       </c>
       <c r="C25" t="n">
-        <v>5.70744974557855</v>
+        <v>9.184168889288557</v>
       </c>
       <c r="D25" t="n">
-        <v>155.0025151189233</v>
+        <v>156.5524060083157</v>
       </c>
       <c r="E25" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B26" t="n">
-        <v>72.56152826294138</v>
+        <v>121.0480856226459</v>
       </c>
       <c r="C26" t="n">
-        <v>1.512953876469161</v>
+        <v>41.34507310264632</v>
       </c>
       <c r="D26" t="n">
-        <v>143.1731505812358</v>
+        <v>194.124714249031</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B27" t="n">
-        <v>81.52757148560264</v>
+        <v>121.9249015875348</v>
       </c>
       <c r="C27" t="n">
-        <v>6.596221028920612</v>
+        <v>49.76885731250037</v>
       </c>
       <c r="D27" t="n">
-        <v>152.0338290956844</v>
+        <v>195.8559277439832</v>
       </c>
       <c r="E27" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="B28" t="n">
-        <v>122.3469574712039</v>
+        <v>77.32199541013067</v>
       </c>
       <c r="C28" t="n">
-        <v>48.2878382357955</v>
+        <v>5.223569413170534</v>
       </c>
       <c r="D28" t="n">
-        <v>200.1717541857127</v>
+        <v>155.0666035099055</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B29" t="n">
+        <v>82.19164625025846</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.04556883064255</v>
+      </c>
+      <c r="D29" t="n">
+        <v>159.1926678783381</v>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B29" t="n">
-        <v>117.9087230893674</v>
-      </c>
-      <c r="C29" t="n">
-        <v>42.53310090322714</v>
-      </c>
-      <c r="D29" t="n">
-        <v>189.5440253531723</v>
-      </c>
-      <c r="E29" t="n">
-        <v>20</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B30" t="n">
-        <v>78.49238587991026</v>
+        <v>49.05512279668598</v>
       </c>
       <c r="C30" t="n">
-        <v>6.891242122440863</v>
+        <v>-20.81183249200281</v>
       </c>
       <c r="D30" t="n">
-        <v>151.6883413787253</v>
+        <v>123.1282780777528</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B31" t="n">
-        <v>87.02820606938904</v>
+        <v>37.75992689353608</v>
       </c>
       <c r="C31" t="n">
-        <v>9.790320020741662</v>
+        <v>-33.38082109559344</v>
       </c>
       <c r="D31" t="n">
-        <v>165.7408461955063</v>
+        <v>109.3584611038678</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B32" t="n">
-        <v>49.87691995416419</v>
+        <v>119.3729294290672</v>
       </c>
       <c r="C32" t="n">
-        <v>-25.21833411105444</v>
+        <v>42.02186726414505</v>
       </c>
       <c r="D32" t="n">
-        <v>119.0748039443044</v>
+        <v>196.1076661263828</v>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B33" t="n">
-        <v>41.94097068680654</v>
+        <v>103.4928124021291</v>
       </c>
       <c r="C33" t="n">
-        <v>-39.58357890006295</v>
+        <v>33.53381364299216</v>
       </c>
       <c r="D33" t="n">
-        <v>113.9254971237698</v>
+        <v>177.5604653068443</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B34" t="n">
+        <v>154.589463287719</v>
+      </c>
+      <c r="C34" t="n">
+        <v>80.77748109838026</v>
+      </c>
+      <c r="D34" t="n">
+        <v>225.5996628434861</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B34" t="n">
-        <v>124.094883785858</v>
-      </c>
-      <c r="C34" t="n">
-        <v>48.43448229580988</v>
-      </c>
-      <c r="D34" t="n">
-        <v>198.1058806028543</v>
-      </c>
-      <c r="E34" t="n">
-        <v>20</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B35" t="n">
-        <v>105.4495810271893</v>
+        <v>162.275656990389</v>
       </c>
       <c r="C35" t="n">
-        <v>30.48197901480819</v>
+        <v>87.79298993392969</v>
       </c>
       <c r="D35" t="n">
-        <v>175.2922041587437</v>
+        <v>235.9724748469979</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B36" t="n">
-        <v>154.8615902300536</v>
+        <v>137.6965323253214</v>
       </c>
       <c r="C36" t="n">
-        <v>83.85709516348675</v>
+        <v>68.27526511083848</v>
       </c>
       <c r="D36" t="n">
-        <v>226.3655344267002</v>
+        <v>211.0719768440357</v>
       </c>
       <c r="E36" t="n">
         <v>40</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B37" t="n">
-        <v>161.2432924310707</v>
+        <v>99.34464498930812</v>
       </c>
       <c r="C37" t="n">
-        <v>89.95228887681223</v>
+        <v>24.91411264113644</v>
       </c>
       <c r="D37" t="n">
-        <v>233.8968815653276</v>
+        <v>169.3836065012653</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B38" t="n">
-        <v>133.2896305998906</v>
+        <v>84.70529613050874</v>
       </c>
       <c r="C38" t="n">
-        <v>62.69542915582361</v>
+        <v>11.56450641663547</v>
       </c>
       <c r="D38" t="n">
-        <v>214.0953514617369</v>
+        <v>155.050408277282</v>
       </c>
       <c r="E38" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B39" t="n">
-        <v>93.70128557600299</v>
+        <v>101.0755579905024</v>
       </c>
       <c r="C39" t="n">
-        <v>23.05681622565091</v>
+        <v>27.49968075379796</v>
       </c>
       <c r="D39" t="n">
-        <v>166.1033800028226</v>
+        <v>174.7291218327119</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45020</v>
+        <v>45040</v>
       </c>
       <c r="B40" t="n">
-        <v>80.97443802511151</v>
+        <v>106.4021245546882</v>
       </c>
       <c r="C40" t="n">
-        <v>8.303903144971736</v>
+        <v>36.73076646351426</v>
       </c>
       <c r="D40" t="n">
-        <v>153.9314160605123</v>
+        <v>179.2612432430403</v>
       </c>
       <c r="E40" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45013</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45027</v>
+        <v>45048</v>
       </c>
       <c r="B41" t="n">
-        <v>102.5992235450401</v>
+        <v>124.650543391332</v>
       </c>
       <c r="C41" t="n">
-        <v>25.91284796662125</v>
+        <v>48.89753331859595</v>
       </c>
       <c r="D41" t="n">
-        <v>175.0549795028753</v>
+        <v>193.1677817550753</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
       <c r="B42" t="n">
-        <v>108.6189667168364</v>
+        <v>110.868855646443</v>
       </c>
       <c r="C42" t="n">
-        <v>35.87272296293056</v>
+        <v>38.56754502830946</v>
       </c>
       <c r="D42" t="n">
-        <v>181.3319041226115</v>
+        <v>183.6201112496807</v>
       </c>
       <c r="E42" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B43" t="n">
-        <v>133.8984619849548</v>
+        <v>87.5391524459657</v>
       </c>
       <c r="C43" t="n">
-        <v>58.99978352590806</v>
+        <v>16.73395864934234</v>
       </c>
       <c r="D43" t="n">
-        <v>200.1747664817222</v>
+        <v>165.077214091112</v>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B44" t="n">
-        <v>114.8897623117562</v>
-      </c>
-      <c r="C44" t="n">
-        <v>41.25457686371879</v>
-      </c>
-      <c r="D44" t="n">
-        <v>188.5550818331212</v>
-      </c>
-      <c r="E44" t="n">
-        <v>50</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B45" t="n">
-        <v>82.37189350858492</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8.635117714274774</v>
-      </c>
-      <c r="D45" t="n">
-        <v>153.0128813855175</v>
-      </c>
-      <c r="E45" t="n">
-        <v>50</v>
-      </c>
-      <c r="F45" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1417,22 +1377,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6205.128458616233</v>
+        <v>6474.190965800077</v>
       </c>
       <c r="C2" t="n">
-        <v>78.7726377533229</v>
+        <v>80.46235744620013</v>
       </c>
       <c r="D2" t="n">
-        <v>71.14436691667787</v>
+        <v>72.65902649143078</v>
       </c>
       <c r="E2" t="n">
-        <v>5.035166704786587</v>
+        <v>5.193430290103773</v>
       </c>
       <c r="F2" t="n">
-        <v>4.587401540331916</v>
+        <v>4.65554404775881</v>
       </c>
       <c r="G2" t="n">
-        <v>1.16795450845123</v>
+        <v>1.173677307831493</v>
       </c>
       <c r="H2" t="n">
         <v>0.5714285714285714</v>
@@ -1443,22 +1403,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5200.666227357981</v>
+        <v>5287.967287551054</v>
       </c>
       <c r="C3" t="n">
-        <v>72.11564481690489</v>
+        <v>72.7184109256456</v>
       </c>
       <c r="D3" t="n">
-        <v>66.35028616723628</v>
+        <v>67.0763882273326</v>
       </c>
       <c r="E3" t="n">
-        <v>3.267646554135447</v>
+        <v>3.330958474803715</v>
       </c>
       <c r="F3" t="n">
-        <v>1.500126403484308</v>
+        <v>0.5077663548354489</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9523130986397395</v>
+        <v>0.9566331538087971</v>
       </c>
       <c r="H3" t="n">
         <v>0.5357142857142857</v>
@@ -1469,25 +1429,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5867.059163896789</v>
+        <v>5511.250397048803</v>
       </c>
       <c r="C4" t="n">
-        <v>76.5967307650711</v>
+        <v>74.23779628362364</v>
       </c>
       <c r="D4" t="n">
-        <v>65.30078195653806</v>
+        <v>63.34970662630121</v>
       </c>
       <c r="E4" t="n">
-        <v>1.612097060806631</v>
+        <v>1.553273458405931</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9423299545012609</v>
+        <v>0.8970129896925849</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7226067046215512</v>
+        <v>0.7133684912752321</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5882352941176467</v>
+        <v>0.59375</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBABOL4471038/OBABOL4471038_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471038/OBABOL4471038_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B2" t="n">
-        <v>150.7906883748915</v>
+        <v>175.4407731938746</v>
       </c>
       <c r="C2" t="n">
-        <v>76.01758017035544</v>
+        <v>104.8021356735831</v>
       </c>
       <c r="D2" t="n">
-        <v>216.4770168147469</v>
+        <v>253.6519215081267</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44747</v>
+        <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>149.2422082363699</v>
+        <v>145.2650450399991</v>
       </c>
       <c r="C3" t="n">
-        <v>79.02351914863692</v>
+        <v>70.35524826991286</v>
       </c>
       <c r="D3" t="n">
-        <v>220.4008329226008</v>
+        <v>219.5621058252059</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44740</v>
@@ -513,159 +513,159 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B4" t="n">
-        <v>120.7280894245373</v>
+        <v>146.4506748184139</v>
       </c>
       <c r="C4" t="n">
-        <v>46.64621267469892</v>
+        <v>72.8664161370328</v>
       </c>
       <c r="D4" t="n">
-        <v>193.7714201263165</v>
+        <v>219.6463371943758</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
       <c r="B5" t="n">
-        <v>135.9904614973145</v>
+        <v>121.1870608042667</v>
       </c>
       <c r="C5" t="n">
-        <v>61.7649143107403</v>
+        <v>46.86623786664152</v>
       </c>
       <c r="D5" t="n">
-        <v>210.5466449747214</v>
+        <v>195.9031992051183</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="B6" t="n">
-        <v>170.8076418509573</v>
+        <v>133.3358505549073</v>
       </c>
       <c r="C6" t="n">
-        <v>94.58401826326676</v>
+        <v>58.12870242580126</v>
       </c>
       <c r="D6" t="n">
-        <v>246.051186017069</v>
+        <v>206.3977288069147</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44782</v>
+        <v>44768</v>
       </c>
       <c r="B7" t="n">
-        <v>206.0494283768994</v>
+        <v>174.1828969734072</v>
       </c>
       <c r="C7" t="n">
-        <v>130.6209769143185</v>
+        <v>97.67512854175052</v>
       </c>
       <c r="D7" t="n">
-        <v>277.3560217152682</v>
+        <v>250.4902842517969</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44775</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44824</v>
+        <v>44782</v>
       </c>
       <c r="B8" t="n">
-        <v>173.8937257948854</v>
+        <v>210.1680805754939</v>
       </c>
       <c r="C8" t="n">
-        <v>100.386444076302</v>
+        <v>136.7618276819975</v>
       </c>
       <c r="D8" t="n">
-        <v>245.4505982202813</v>
+        <v>285.1308414230856</v>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44817</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B9" t="n">
-        <v>167.3153514245392</v>
+        <v>172.2547022847297</v>
       </c>
       <c r="C9" t="n">
-        <v>96.98287466362373</v>
+        <v>95.16464685332255</v>
       </c>
       <c r="D9" t="n">
-        <v>242.3904282943145</v>
+        <v>249.1897626545309</v>
       </c>
       <c r="E9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44848</v>
+        <v>44831</v>
       </c>
       <c r="B10" t="n">
-        <v>165.1308444500685</v>
+        <v>168.5343941534764</v>
       </c>
       <c r="C10" t="n">
-        <v>91.85058878224282</v>
+        <v>93.48924471914766</v>
       </c>
       <c r="D10" t="n">
-        <v>244.891478577974</v>
+        <v>247.113200553528</v>
       </c>
       <c r="E10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44845</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44852</v>
+        <v>44848</v>
       </c>
       <c r="B11" t="n">
-        <v>172.4376522495596</v>
+        <v>162.4581801158699</v>
       </c>
       <c r="C11" t="n">
-        <v>90.96133131296338</v>
+        <v>85.4720480089526</v>
       </c>
       <c r="D11" t="n">
-        <v>251.1557990328433</v>
+        <v>228.8412106651138</v>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44845</v>
@@ -673,99 +673,99 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B12" t="n">
-        <v>150.958659328439</v>
+        <v>170.0010783638592</v>
       </c>
       <c r="C12" t="n">
-        <v>79.24855243774955</v>
+        <v>95.01043349669828</v>
       </c>
       <c r="D12" t="n">
-        <v>229.8339029285639</v>
+        <v>246.0671122702219</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B13" t="n">
-        <v>109.3896244811571</v>
+        <v>147.392788961508</v>
       </c>
       <c r="C13" t="n">
-        <v>31.66801250728266</v>
+        <v>69.74789592884504</v>
       </c>
       <c r="D13" t="n">
-        <v>183.7495743586639</v>
+        <v>223.0614004043195</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B14" t="n">
-        <v>113.1108809551762</v>
+        <v>113.3097674205234</v>
       </c>
       <c r="C14" t="n">
-        <v>38.63442663276611</v>
+        <v>38.22391256920491</v>
       </c>
       <c r="D14" t="n">
-        <v>188.7728113203859</v>
+        <v>188.4612932169269</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44876</v>
+        <v>44869</v>
       </c>
       <c r="B15" t="n">
-        <v>97.87566037569826</v>
+        <v>111.1509849926465</v>
       </c>
       <c r="C15" t="n">
-        <v>22.28460839302654</v>
+        <v>34.58378651664176</v>
       </c>
       <c r="D15" t="n">
-        <v>171.2889110451463</v>
+        <v>190.4947128304808</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44880</v>
+        <v>44876</v>
       </c>
       <c r="B16" t="n">
-        <v>116.7581511330874</v>
+        <v>95.58464701304871</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76651654284387</v>
+        <v>14.13434720740294</v>
       </c>
       <c r="D16" t="n">
-        <v>194.425786309144</v>
+        <v>168.8699066263065</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44873</v>
@@ -773,79 +773,79 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B17" t="n">
-        <v>101.1423084139399</v>
+        <v>115.841472958719</v>
       </c>
       <c r="C17" t="n">
-        <v>22.37825508389873</v>
+        <v>43.73803809868137</v>
       </c>
       <c r="D17" t="n">
-        <v>174.4149223190443</v>
+        <v>198.4194972129077</v>
       </c>
       <c r="E17" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B18" t="n">
-        <v>93.90260327505874</v>
+        <v>102.3040251444213</v>
       </c>
       <c r="C18" t="n">
-        <v>26.96003118136517</v>
+        <v>27.67838295369272</v>
       </c>
       <c r="D18" t="n">
-        <v>175.710560351574</v>
+        <v>178.6619419387419</v>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B19" t="n">
-        <v>70.89030347192116</v>
+        <v>97.01579590387287</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.840005426205389</v>
+        <v>20.19916546342511</v>
       </c>
       <c r="D19" t="n">
-        <v>147.7250605580831</v>
+        <v>176.1295698501731</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B20" t="n">
-        <v>87.18933441047224</v>
+        <v>68.07938005108008</v>
       </c>
       <c r="C20" t="n">
-        <v>13.6780516810974</v>
+        <v>-8.856347593192123</v>
       </c>
       <c r="D20" t="n">
-        <v>161.185191634312</v>
+        <v>146.2907794404133</v>
       </c>
       <c r="E20" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44894</v>
@@ -853,179 +853,179 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B21" t="n">
-        <v>96.69740507713723</v>
+        <v>84.51010114009622</v>
       </c>
       <c r="C21" t="n">
-        <v>22.47669404757664</v>
+        <v>9.456710279430625</v>
       </c>
       <c r="D21" t="n">
-        <v>171.6612375564356</v>
+        <v>166.8683779908276</v>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B22" t="n">
-        <v>102.2036393986941</v>
+        <v>94.22128485776514</v>
       </c>
       <c r="C22" t="n">
-        <v>18.03651999518289</v>
+        <v>19.7770142675</v>
       </c>
       <c r="D22" t="n">
-        <v>179.9659255298583</v>
+        <v>168.851822749691</v>
       </c>
       <c r="E22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B23" t="n">
-        <v>86.47196780581328</v>
+        <v>103.2671532712347</v>
       </c>
       <c r="C23" t="n">
-        <v>12.97872841988614</v>
+        <v>21.9330887100722</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1266432234743</v>
+        <v>175.0900993489124</v>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B24" t="n">
-        <v>73.72516474735431</v>
+        <v>80.54740309831966</v>
       </c>
       <c r="C24" t="n">
-        <v>1.018743760532776</v>
+        <v>7.14649954747818</v>
       </c>
       <c r="D24" t="n">
-        <v>148.5899275328303</v>
+        <v>157.0291558823589</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B25" t="n">
-        <v>82.17265487278553</v>
+        <v>73.9477616126899</v>
       </c>
       <c r="C25" t="n">
-        <v>9.184168889288557</v>
+        <v>5.368936053241434</v>
       </c>
       <c r="D25" t="n">
-        <v>156.5524060083157</v>
+        <v>150.0462819668401</v>
       </c>
       <c r="E25" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B26" t="n">
-        <v>121.0480856226459</v>
+        <v>84.20773793315124</v>
       </c>
       <c r="C26" t="n">
-        <v>41.34507310264632</v>
+        <v>16.55525210742866</v>
       </c>
       <c r="D26" t="n">
-        <v>194.124714249031</v>
+        <v>158.9240873309591</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B27" t="n">
-        <v>121.9249015875348</v>
+        <v>117.7636039406854</v>
       </c>
       <c r="C27" t="n">
-        <v>49.76885731250037</v>
+        <v>43.64301037769776</v>
       </c>
       <c r="D27" t="n">
-        <v>195.8559277439832</v>
+        <v>186.5757353326715</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B28" t="n">
-        <v>77.32199541013067</v>
+        <v>122.2540670082241</v>
       </c>
       <c r="C28" t="n">
-        <v>5.223569413170534</v>
+        <v>46.39158134260275</v>
       </c>
       <c r="D28" t="n">
-        <v>155.0666035099055</v>
+        <v>200.6610995277946</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B29" t="n">
-        <v>82.19164625025846</v>
+        <v>75.35187202757236</v>
       </c>
       <c r="C29" t="n">
-        <v>10.04556883064255</v>
+        <v>-0.9317566200822568</v>
       </c>
       <c r="D29" t="n">
-        <v>159.1926678783381</v>
+        <v>148.3039898574988</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>44957</v>
@@ -1033,59 +1033,59 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B30" t="n">
-        <v>49.05512279668598</v>
+        <v>79.5990308387444</v>
       </c>
       <c r="C30" t="n">
-        <v>-20.81183249200281</v>
+        <v>4.370705082590366</v>
       </c>
       <c r="D30" t="n">
-        <v>123.1282780777528</v>
+        <v>152.6413846412502</v>
       </c>
       <c r="E30" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>37.75992689353608</v>
+        <v>46.0138508864141</v>
       </c>
       <c r="C31" t="n">
-        <v>-33.38082109559344</v>
+        <v>-27.5434373322738</v>
       </c>
       <c r="D31" t="n">
-        <v>109.3584611038678</v>
+        <v>117.7070504966565</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B32" t="n">
-        <v>119.3729294290672</v>
+        <v>35.48893293788672</v>
       </c>
       <c r="C32" t="n">
-        <v>42.02186726414505</v>
+        <v>-37.17922302558894</v>
       </c>
       <c r="D32" t="n">
-        <v>196.1076661263828</v>
+        <v>109.3760176243655</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>44978</v>
@@ -1093,39 +1093,39 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B33" t="n">
-        <v>103.4928124021291</v>
+        <v>124.5150899252639</v>
       </c>
       <c r="C33" t="n">
-        <v>33.53381364299216</v>
+        <v>46.58915078101038</v>
       </c>
       <c r="D33" t="n">
-        <v>177.5604653068443</v>
+        <v>201.5642884256806</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B34" t="n">
-        <v>154.589463287719</v>
+        <v>109.0592895151009</v>
       </c>
       <c r="C34" t="n">
-        <v>80.77748109838026</v>
+        <v>36.03461053409166</v>
       </c>
       <c r="D34" t="n">
-        <v>225.5996628434861</v>
+        <v>182.5716548945071</v>
       </c>
       <c r="E34" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>44985</v>
@@ -1133,181 +1133,201 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B35" t="n">
-        <v>162.275656990389</v>
+        <v>159.2078064894577</v>
       </c>
       <c r="C35" t="n">
-        <v>87.79298993392969</v>
+        <v>85.73796460729228</v>
       </c>
       <c r="D35" t="n">
-        <v>235.9724748469979</v>
+        <v>233.964654837013</v>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6965323253214</v>
+        <v>159.6641184297732</v>
       </c>
       <c r="C36" t="n">
-        <v>68.27526511083848</v>
+        <v>87.82436593290724</v>
       </c>
       <c r="D36" t="n">
-        <v>211.0719768440357</v>
+        <v>229.200291804836</v>
       </c>
       <c r="E36" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B37" t="n">
-        <v>99.34464498930812</v>
+        <v>135.7693805242058</v>
       </c>
       <c r="C37" t="n">
-        <v>24.91411264113644</v>
+        <v>60.14938648881355</v>
       </c>
       <c r="D37" t="n">
-        <v>169.3836065012653</v>
+        <v>203.8520056577705</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B38" t="n">
-        <v>84.70529613050874</v>
+        <v>97.43618862885992</v>
       </c>
       <c r="C38" t="n">
-        <v>11.56450641663547</v>
+        <v>25.05465530479998</v>
       </c>
       <c r="D38" t="n">
-        <v>155.050408277282</v>
+        <v>173.1418425495759</v>
       </c>
       <c r="E38" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B39" t="n">
-        <v>101.0755579905024</v>
+        <v>84.46776848789322</v>
       </c>
       <c r="C39" t="n">
-        <v>27.49968075379796</v>
+        <v>5.823356438491061</v>
       </c>
       <c r="D39" t="n">
-        <v>174.7291218327119</v>
+        <v>157.2692552241695</v>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B40" t="n">
-        <v>106.4021245546882</v>
+        <v>102.688976737278</v>
       </c>
       <c r="C40" t="n">
-        <v>36.73076646351426</v>
+        <v>28.91779917376854</v>
       </c>
       <c r="D40" t="n">
-        <v>179.2612432430403</v>
+        <v>174.0546268211005</v>
       </c>
       <c r="E40" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B41" t="n">
-        <v>124.650543391332</v>
+        <v>96.79738122967059</v>
       </c>
       <c r="C41" t="n">
-        <v>48.89753331859595</v>
+        <v>25.63979139420957</v>
       </c>
       <c r="D41" t="n">
-        <v>193.1677817550753</v>
+        <v>171.27547343387</v>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B42" t="n">
-        <v>110.868855646443</v>
+        <v>123.211793637311</v>
       </c>
       <c r="C42" t="n">
-        <v>38.56754502830946</v>
+        <v>48.88715697269116</v>
       </c>
       <c r="D42" t="n">
-        <v>183.6201112496807</v>
+        <v>197.3877411049282</v>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45062</v>
+        <v>45055</v>
       </c>
       <c r="B43" t="n">
-        <v>87.5391524459657</v>
+        <v>107.4058557926623</v>
       </c>
       <c r="C43" t="n">
-        <v>16.73395864934234</v>
+        <v>35.15127611031106</v>
       </c>
       <c r="D43" t="n">
-        <v>165.077214091112</v>
+        <v>178.2200790590769</v>
       </c>
       <c r="E43" t="n">
         <v>50</v>
       </c>
       <c r="F43" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B44" t="n">
+        <v>85.18938189250289</v>
+      </c>
+      <c r="C44" t="n">
+        <v>17.35819213817418</v>
+      </c>
+      <c r="D44" t="n">
+        <v>155.1348073278553</v>
+      </c>
+      <c r="E44" t="n">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1377,25 +1397,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6474.190965800077</v>
+        <v>6124.776949337021</v>
       </c>
       <c r="C2" t="n">
-        <v>80.46235744620013</v>
+        <v>78.26095418110503</v>
       </c>
       <c r="D2" t="n">
-        <v>72.65902649143078</v>
+        <v>70.99277125075966</v>
       </c>
       <c r="E2" t="n">
-        <v>5.193430290103773</v>
+        <v>5.026354529951115</v>
       </c>
       <c r="F2" t="n">
-        <v>4.65554404775881</v>
+        <v>4.557549249632323</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173677307831493</v>
+        <v>1.169742187374112</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -1403,25 +1423,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5287.967287551054</v>
+        <v>5505.147472589189</v>
       </c>
       <c r="C3" t="n">
-        <v>72.7184109256456</v>
+        <v>74.19668100790756</v>
       </c>
       <c r="D3" t="n">
-        <v>67.0763882273326</v>
+        <v>69.62448217309306</v>
       </c>
       <c r="E3" t="n">
-        <v>3.330958474803715</v>
+        <v>3.296096358097135</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5077663548354489</v>
+        <v>3.278112299001608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9566331538087971</v>
+        <v>0.983320378114855</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="4">
@@ -1429,25 +1449,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5511.250397048803</v>
+        <v>5994.514493293718</v>
       </c>
       <c r="C4" t="n">
-        <v>74.23779628362364</v>
+        <v>77.42425003378281</v>
       </c>
       <c r="D4" t="n">
-        <v>63.34970662630121</v>
+        <v>65.47074454255028</v>
       </c>
       <c r="E4" t="n">
-        <v>1.553273458405931</v>
+        <v>1.653314914299051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8970129896925849</v>
+        <v>0.9306912159786507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7133684912752321</v>
+        <v>0.7309321307392249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.59375</v>
+        <v>0.5757575757575761</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBABOL4471038/OBABOL4471038_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471038/OBABOL4471038_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>175.4407731938746</v>
       </c>
       <c r="C2" t="n">
-        <v>104.8021356735831</v>
+        <v>105.3613412331968</v>
       </c>
       <c r="D2" t="n">
-        <v>253.6519215081267</v>
+        <v>250.3339121305358</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
@@ -499,10 +499,10 @@
         <v>145.2650450399991</v>
       </c>
       <c r="C3" t="n">
-        <v>70.35524826991286</v>
+        <v>69.71755452339778</v>
       </c>
       <c r="D3" t="n">
-        <v>219.5621058252059</v>
+        <v>216.8458319815573</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -519,10 +519,10 @@
         <v>146.4506748184139</v>
       </c>
       <c r="C4" t="n">
-        <v>72.8664161370328</v>
+        <v>76.77836363805652</v>
       </c>
       <c r="D4" t="n">
-        <v>219.6463371943758</v>
+        <v>219.1239928519396</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -539,10 +539,10 @@
         <v>121.1870608042667</v>
       </c>
       <c r="C5" t="n">
-        <v>46.86623786664152</v>
+        <v>46.20541905188474</v>
       </c>
       <c r="D5" t="n">
-        <v>195.9031992051183</v>
+        <v>190.834107794595</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
@@ -559,10 +559,10 @@
         <v>133.3358505549073</v>
       </c>
       <c r="C6" t="n">
-        <v>58.12870242580126</v>
+        <v>60.81545026566253</v>
       </c>
       <c r="D6" t="n">
-        <v>206.3977288069147</v>
+        <v>206.3962105616599</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
@@ -579,10 +579,10 @@
         <v>174.1828969734072</v>
       </c>
       <c r="C7" t="n">
-        <v>97.67512854175052</v>
+        <v>103.6694190255305</v>
       </c>
       <c r="D7" t="n">
-        <v>250.4902842517969</v>
+        <v>252.1679427633841</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -599,10 +599,10 @@
         <v>210.1680805754939</v>
       </c>
       <c r="C8" t="n">
-        <v>136.7618276819975</v>
+        <v>136.1208771301916</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1308414230856</v>
+        <v>281.2664412592734</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -619,10 +619,10 @@
         <v>172.2547022847297</v>
       </c>
       <c r="C9" t="n">
-        <v>95.16464685332255</v>
+        <v>92.41776976119654</v>
       </c>
       <c r="D9" t="n">
-        <v>249.1897626545309</v>
+        <v>253.0153747605041</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
@@ -639,10 +639,10 @@
         <v>168.5343941534764</v>
       </c>
       <c r="C10" t="n">
-        <v>93.48924471914766</v>
+        <v>85.55751439136964</v>
       </c>
       <c r="D10" t="n">
-        <v>247.113200553528</v>
+        <v>243.6100546827886</v>
       </c>
       <c r="E10" t="n">
         <v>130</v>
@@ -659,10 +659,10 @@
         <v>162.4581801158699</v>
       </c>
       <c r="C11" t="n">
-        <v>85.4720480089526</v>
+        <v>85.6026155919285</v>
       </c>
       <c r="D11" t="n">
-        <v>228.8412106651138</v>
+        <v>243.0434254015754</v>
       </c>
       <c r="E11" t="n">
         <v>140</v>
@@ -679,10 +679,10 @@
         <v>170.0010783638592</v>
       </c>
       <c r="C12" t="n">
-        <v>95.01043349669828</v>
+        <v>94.90923328193549</v>
       </c>
       <c r="D12" t="n">
-        <v>246.0671122702219</v>
+        <v>247.1161525624631</v>
       </c>
       <c r="E12" t="n">
         <v>90</v>
@@ -699,10 +699,10 @@
         <v>147.392788961508</v>
       </c>
       <c r="C13" t="n">
-        <v>69.74789592884504</v>
+        <v>74.6283469464957</v>
       </c>
       <c r="D13" t="n">
-        <v>223.0614004043195</v>
+        <v>227.109136248178</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
@@ -719,10 +719,10 @@
         <v>113.3097674205234</v>
       </c>
       <c r="C14" t="n">
-        <v>38.22391256920491</v>
+        <v>40.67651945976368</v>
       </c>
       <c r="D14" t="n">
-        <v>188.4612932169269</v>
+        <v>188.7696443459317</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -739,10 +739,10 @@
         <v>111.1509849926465</v>
       </c>
       <c r="C15" t="n">
-        <v>34.58378651664176</v>
+        <v>37.22553839504616</v>
       </c>
       <c r="D15" t="n">
-        <v>190.4947128304808</v>
+        <v>188.4755815329719</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -759,10 +759,10 @@
         <v>95.58464701304871</v>
       </c>
       <c r="C16" t="n">
-        <v>14.13434720740294</v>
+        <v>20.4620227445026</v>
       </c>
       <c r="D16" t="n">
-        <v>168.8699066263065</v>
+        <v>167.024288574631</v>
       </c>
       <c r="E16" t="n">
         <v>20</v>
@@ -779,10 +779,10 @@
         <v>115.841472958719</v>
       </c>
       <c r="C17" t="n">
-        <v>43.73803809868137</v>
+        <v>41.62647113130837</v>
       </c>
       <c r="D17" t="n">
-        <v>198.4194972129077</v>
+        <v>190.0946817044832</v>
       </c>
       <c r="E17" t="n">
         <v>60</v>
@@ -799,10 +799,10 @@
         <v>102.3040251444213</v>
       </c>
       <c r="C18" t="n">
-        <v>27.67838295369272</v>
+        <v>27.64974616949797</v>
       </c>
       <c r="D18" t="n">
-        <v>178.6619419387419</v>
+        <v>182.1462811021063</v>
       </c>
       <c r="E18" t="n">
         <v>90</v>
@@ -819,10 +819,10 @@
         <v>97.01579590387287</v>
       </c>
       <c r="C19" t="n">
-        <v>20.19916546342511</v>
+        <v>19.97616187603169</v>
       </c>
       <c r="D19" t="n">
-        <v>176.1295698501731</v>
+        <v>170.4268585274113</v>
       </c>
       <c r="E19" t="n">
         <v>50</v>
@@ -839,10 +839,10 @@
         <v>68.07938005108008</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.856347593192123</v>
+        <v>-9.041778704907056</v>
       </c>
       <c r="D20" t="n">
-        <v>146.2907794404133</v>
+        <v>143.8628523405655</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -859,10 +859,10 @@
         <v>84.51010114009622</v>
       </c>
       <c r="C21" t="n">
-        <v>9.456710279430625</v>
+        <v>2.755414200869993</v>
       </c>
       <c r="D21" t="n">
-        <v>166.8683779908276</v>
+        <v>162.3353088491692</v>
       </c>
       <c r="E21" t="n">
         <v>110</v>
@@ -879,10 +879,10 @@
         <v>94.22128485776514</v>
       </c>
       <c r="C22" t="n">
-        <v>19.7770142675</v>
+        <v>17.22236089024545</v>
       </c>
       <c r="D22" t="n">
-        <v>168.851822749691</v>
+        <v>169.7836963008033</v>
       </c>
       <c r="E22" t="n">
         <v>70</v>
@@ -899,10 +899,10 @@
         <v>103.2671532712347</v>
       </c>
       <c r="C23" t="n">
-        <v>21.9330887100722</v>
+        <v>25.8780208952192</v>
       </c>
       <c r="D23" t="n">
-        <v>175.0900993489124</v>
+        <v>172.6447066849611</v>
       </c>
       <c r="E23" t="n">
         <v>80</v>
@@ -919,10 +919,10 @@
         <v>80.54740309831966</v>
       </c>
       <c r="C24" t="n">
-        <v>7.14649954747818</v>
+        <v>7.561967192066395</v>
       </c>
       <c r="D24" t="n">
-        <v>157.0291558823589</v>
+        <v>149.5131259204248</v>
       </c>
       <c r="E24" t="n">
         <v>70</v>
@@ -939,10 +939,10 @@
         <v>73.9477616126899</v>
       </c>
       <c r="C25" t="n">
-        <v>5.368936053241434</v>
+        <v>-2.215673264294914</v>
       </c>
       <c r="D25" t="n">
-        <v>150.0462819668401</v>
+        <v>156.1912432775808</v>
       </c>
       <c r="E25" t="n">
         <v>50</v>
@@ -959,10 +959,10 @@
         <v>84.20773793315124</v>
       </c>
       <c r="C26" t="n">
-        <v>16.55525210742866</v>
+        <v>6.692878430004069</v>
       </c>
       <c r="D26" t="n">
-        <v>158.9240873309591</v>
+        <v>160.106669647412</v>
       </c>
       <c r="E26" t="n">
         <v>120</v>
@@ -979,10 +979,10 @@
         <v>117.7636039406854</v>
       </c>
       <c r="C27" t="n">
-        <v>43.64301037769776</v>
+        <v>41.72753353384338</v>
       </c>
       <c r="D27" t="n">
-        <v>186.5757353326715</v>
+        <v>191.3308120581504</v>
       </c>
       <c r="E27" t="n">
         <v>80</v>
@@ -999,10 +999,10 @@
         <v>122.2540670082241</v>
       </c>
       <c r="C28" t="n">
-        <v>46.39158134260275</v>
+        <v>43.09278397787617</v>
       </c>
       <c r="D28" t="n">
-        <v>200.6610995277946</v>
+        <v>192.0442529323445</v>
       </c>
       <c r="E28" t="n">
         <v>20</v>
@@ -1019,10 +1019,10 @@
         <v>75.35187202757236</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9317566200822568</v>
+        <v>-1.133719166747682</v>
       </c>
       <c r="D29" t="n">
-        <v>148.3039898574988</v>
+        <v>154.7934189079725</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -1039,10 +1039,10 @@
         <v>79.5990308387444</v>
       </c>
       <c r="C30" t="n">
-        <v>4.370705082590366</v>
+        <v>6.767215980371761</v>
       </c>
       <c r="D30" t="n">
-        <v>152.6413846412502</v>
+        <v>152.1467706481428</v>
       </c>
       <c r="E30" t="n">
         <v>50</v>
@@ -1059,10 +1059,10 @@
         <v>46.0138508864141</v>
       </c>
       <c r="C31" t="n">
-        <v>-27.5434373322738</v>
+        <v>-26.54127141096663</v>
       </c>
       <c r="D31" t="n">
-        <v>117.7070504966565</v>
+        <v>113.116912032176</v>
       </c>
       <c r="E31" t="n">
         <v>80</v>
@@ -1079,10 +1079,10 @@
         <v>35.48893293788672</v>
       </c>
       <c r="C32" t="n">
-        <v>-37.17922302558894</v>
+        <v>-38.20664528546934</v>
       </c>
       <c r="D32" t="n">
-        <v>109.3760176243655</v>
+        <v>112.4071480444841</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1099,10 +1099,10 @@
         <v>124.5150899252639</v>
       </c>
       <c r="C33" t="n">
-        <v>46.58915078101038</v>
+        <v>50.29705571289875</v>
       </c>
       <c r="D33" t="n">
-        <v>201.5642884256806</v>
+        <v>198.1769504405054</v>
       </c>
       <c r="E33" t="n">
         <v>20</v>
@@ -1119,10 +1119,10 @@
         <v>109.0592895151009</v>
       </c>
       <c r="C34" t="n">
-        <v>36.03461053409166</v>
+        <v>33.46222505032036</v>
       </c>
       <c r="D34" t="n">
-        <v>182.5716548945071</v>
+        <v>182.998861598429</v>
       </c>
       <c r="E34" t="n">
         <v>60</v>
@@ -1139,10 +1139,10 @@
         <v>159.2078064894577</v>
       </c>
       <c r="C35" t="n">
-        <v>85.73796460729228</v>
+        <v>82.674792797799</v>
       </c>
       <c r="D35" t="n">
-        <v>233.964654837013</v>
+        <v>233.8808288437381</v>
       </c>
       <c r="E35" t="n">
         <v>40</v>
@@ -1159,10 +1159,10 @@
         <v>159.6641184297732</v>
       </c>
       <c r="C36" t="n">
-        <v>87.82436593290724</v>
+        <v>84.51914144189288</v>
       </c>
       <c r="D36" t="n">
-        <v>229.200291804836</v>
+        <v>230.1141095446257</v>
       </c>
       <c r="E36" t="n">
         <v>60</v>
@@ -1179,10 +1179,10 @@
         <v>135.7693805242058</v>
       </c>
       <c r="C37" t="n">
-        <v>60.14938648881355</v>
+        <v>64.54671940940113</v>
       </c>
       <c r="D37" t="n">
-        <v>203.8520056577705</v>
+        <v>210.4762991814072</v>
       </c>
       <c r="E37" t="n">
         <v>40</v>
@@ -1199,10 +1199,10 @@
         <v>97.43618862885992</v>
       </c>
       <c r="C38" t="n">
-        <v>25.05465530479998</v>
+        <v>22.83810918065282</v>
       </c>
       <c r="D38" t="n">
-        <v>173.1418425495759</v>
+        <v>175.9951609561815</v>
       </c>
       <c r="E38" t="n">
         <v>30</v>
@@ -1219,10 +1219,10 @@
         <v>84.46776848789322</v>
       </c>
       <c r="C39" t="n">
-        <v>5.823356438491061</v>
+        <v>6.477475033946726</v>
       </c>
       <c r="D39" t="n">
-        <v>157.2692552241695</v>
+        <v>154.0276548245026</v>
       </c>
       <c r="E39" t="n">
         <v>70</v>
@@ -1239,10 +1239,10 @@
         <v>102.688976737278</v>
       </c>
       <c r="C40" t="n">
-        <v>28.91779917376854</v>
+        <v>34.06817334307107</v>
       </c>
       <c r="D40" t="n">
-        <v>174.0546268211005</v>
+        <v>174.9156262656007</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -1259,10 +1259,10 @@
         <v>96.79738122967059</v>
       </c>
       <c r="C41" t="n">
-        <v>25.63979139420957</v>
+        <v>26.09450548459317</v>
       </c>
       <c r="D41" t="n">
-        <v>171.27547343387</v>
+        <v>168.2980506346278</v>
       </c>
       <c r="E41" t="n">
         <v>150</v>
@@ -1279,10 +1279,10 @@
         <v>123.211793637311</v>
       </c>
       <c r="C42" t="n">
-        <v>48.88715697269116</v>
+        <v>50.81277823588943</v>
       </c>
       <c r="D42" t="n">
-        <v>197.3877411049282</v>
+        <v>198.1056826656926</v>
       </c>
       <c r="E42" t="n">
         <v>100</v>
@@ -1299,10 +1299,10 @@
         <v>107.4058557926623</v>
       </c>
       <c r="C43" t="n">
-        <v>35.15127611031106</v>
+        <v>38.19036413934962</v>
       </c>
       <c r="D43" t="n">
-        <v>178.2200790590769</v>
+        <v>181.8045732487575</v>
       </c>
       <c r="E43" t="n">
         <v>50</v>
@@ -1319,10 +1319,10 @@
         <v>85.18938189250289</v>
       </c>
       <c r="C44" t="n">
-        <v>17.35819213817418</v>
+        <v>14.6819549298532</v>
       </c>
       <c r="D44" t="n">
-        <v>155.1348073278553</v>
+        <v>156.8230463725155</v>
       </c>
       <c r="E44" t="n">
         <v>50</v>
@@ -1415,7 +1415,7 @@
         <v>1.169742187374112</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="3">
@@ -1441,7 +1441,7 @@
         <v>0.983320378114855</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="4">
